--- a/spreadsheets/new/GSE75367.0.xlsx
+++ b/spreadsheets/new/GSE75367.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B80B09E-37AF-9A4C-A312-E4F396FEC60F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="29380" windowHeight="17340" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1534">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -4621,13 +4627,16 @@
   </si>
   <si>
     <t>ptprc high erbb2 high er negative pr negative her2 negative breast cancer</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4664,6 +4673,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4710,7 +4727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4742,9 +4759,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4776,6 +4811,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4951,75 +5004,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5198,7 +5249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5377,7 +5428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5535,7 +5586,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -5714,12 +5765,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -5739,7 +5790,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5759,7 +5810,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5779,7 +5830,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -5799,7 +5850,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -5819,7 +5870,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -5839,7 +5890,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -5859,7 +5910,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -5879,7 +5930,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -5899,7 +5950,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>237</v>
       </c>
@@ -5919,7 +5970,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -5939,7 +5990,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>243</v>
       </c>
@@ -5959,7 +6010,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -5979,7 +6030,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -5999,7 +6050,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -6019,7 +6070,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -6039,7 +6090,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>258</v>
       </c>
@@ -6059,7 +6110,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>261</v>
       </c>
@@ -6079,7 +6130,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>264</v>
       </c>
@@ -6099,7 +6150,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>267</v>
       </c>
@@ -6119,7 +6170,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>270</v>
       </c>
@@ -6139,7 +6190,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>273</v>
       </c>
@@ -6159,7 +6210,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>276</v>
       </c>
@@ -6179,7 +6230,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>279</v>
       </c>
@@ -6199,7 +6250,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>282</v>
       </c>
@@ -6219,7 +6270,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>285</v>
       </c>
@@ -6239,7 +6290,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>288</v>
       </c>
@@ -6259,7 +6310,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -6279,7 +6330,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -6299,7 +6350,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -6319,7 +6370,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>300</v>
       </c>
@@ -6339,7 +6390,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>303</v>
       </c>
@@ -6359,7 +6410,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>306</v>
       </c>
@@ -6379,7 +6430,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>309</v>
       </c>
@@ -6399,7 +6450,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -6419,7 +6470,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>315</v>
       </c>
@@ -6439,7 +6490,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -6459,7 +6510,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>321</v>
       </c>
@@ -6479,7 +6530,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>324</v>
       </c>
@@ -6499,7 +6550,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>327</v>
       </c>
@@ -6519,7 +6570,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>330</v>
       </c>
@@ -6539,7 +6590,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>333</v>
       </c>
@@ -6559,7 +6610,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -6579,7 +6630,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -6599,7 +6650,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>342</v>
       </c>
@@ -6619,7 +6670,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -6639,7 +6690,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -6659,7 +6710,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>351</v>
       </c>
@@ -6679,7 +6730,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -6699,7 +6750,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>357</v>
       </c>
@@ -6719,7 +6770,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>360</v>
       </c>
@@ -6739,7 +6790,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>363</v>
       </c>
@@ -6759,7 +6810,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>366</v>
       </c>
@@ -6779,7 +6830,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>369</v>
       </c>
@@ -6799,7 +6850,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>372</v>
       </c>
@@ -6819,7 +6870,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>375</v>
       </c>
@@ -6839,7 +6890,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>378</v>
       </c>
@@ -6859,7 +6910,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>381</v>
       </c>
@@ -6879,7 +6930,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>384</v>
       </c>
@@ -6899,7 +6950,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>387</v>
       </c>
@@ -6919,7 +6970,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>390</v>
       </c>
@@ -6939,7 +6990,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>393</v>
       </c>
@@ -6959,7 +7010,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>396</v>
       </c>
@@ -6979,7 +7030,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>399</v>
       </c>
@@ -6999,7 +7050,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>402</v>
       </c>
@@ -7019,7 +7070,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>405</v>
       </c>
@@ -7039,7 +7090,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>408</v>
       </c>
@@ -7059,7 +7110,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>411</v>
       </c>
@@ -7079,7 +7130,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>414</v>
       </c>
@@ -7099,7 +7150,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>417</v>
       </c>
@@ -7119,7 +7170,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>420</v>
       </c>
@@ -7139,7 +7190,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>423</v>
       </c>
@@ -7159,7 +7210,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>426</v>
       </c>
@@ -7179,7 +7230,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>429</v>
       </c>
@@ -7205,93 +7256,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>432</v>
       </c>
@@ -7524,7 +7573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -7757,7 +7806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -7972,7 +8021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>536</v>
       </c>
@@ -8205,12 +8254,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>597</v>
       </c>
@@ -8221,7 +8270,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>599</v>
       </c>
@@ -8232,7 +8281,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>600</v>
       </c>
@@ -8243,7 +8292,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>601</v>
       </c>
@@ -8254,7 +8303,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>602</v>
       </c>
@@ -8265,7 +8314,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>603</v>
       </c>
@@ -8276,7 +8325,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>604</v>
       </c>
@@ -8287,7 +8336,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>605</v>
       </c>
@@ -8298,7 +8347,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>606</v>
       </c>
@@ -8309,7 +8358,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>607</v>
       </c>
@@ -8320,7 +8369,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>608</v>
       </c>
@@ -8331,7 +8380,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>609</v>
       </c>
@@ -8342,7 +8391,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>610</v>
       </c>
@@ -8353,7 +8402,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>611</v>
       </c>
@@ -8364,7 +8413,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>612</v>
       </c>
@@ -8375,7 +8424,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>613</v>
       </c>
@@ -8392,67 +8441,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="374.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="374.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>614</v>
       </c>
@@ -8607,7 +8654,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8762,7 +8809,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -8911,7 +8958,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>715</v>
       </c>
@@ -9066,12 +9113,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>766</v>
       </c>
@@ -9088,25 +9135,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1766.7109375" customWidth="1"/>
-    <col min="4" max="4" width="183.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1766.6640625" customWidth="1"/>
+    <col min="4" max="4" width="183.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>769</v>
       </c>
@@ -9135,7 +9181,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>778</v>
       </c>
@@ -9164,7 +9210,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>787</v>
       </c>
@@ -9193,7 +9239,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>796</v>
       </c>
@@ -9222,12 +9268,12 @@
         <v>804</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>805</v>
       </c>
@@ -9253,28 +9299,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>811</v>
       </c>
@@ -9312,7 +9358,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>823</v>
       </c>
@@ -9350,7 +9396,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>833</v>
       </c>
@@ -9388,7 +9434,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>844</v>
       </c>
@@ -9426,12 +9472,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>856</v>
       </c>
@@ -9457,21 +9503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>862</v>
       </c>
@@ -9488,7 +9534,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>866</v>
       </c>
@@ -9505,7 +9551,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>871</v>
       </c>
@@ -9522,7 +9568,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>876</v>
       </c>
@@ -9539,12 +9585,12 @@
         <v>880</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>881</v>
       </c>
@@ -9555,46 +9601,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>882</v>
       </c>
@@ -9686,7 +9730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>894</v>
       </c>
@@ -9778,7 +9822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>903</v>
       </c>
@@ -9858,7 +9902,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>913</v>
       </c>
@@ -9950,12 +9994,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>925</v>
       </c>
@@ -9978,7 +10022,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>930</v>
       </c>
@@ -10001,7 +10045,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>932</v>
       </c>
@@ -10024,7 +10068,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>934</v>
       </c>
@@ -10047,7 +10091,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>935</v>
       </c>
@@ -10070,7 +10114,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>937</v>
       </c>
@@ -10093,7 +10137,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>938</v>
       </c>
@@ -10116,7 +10160,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>940</v>
       </c>
@@ -10139,7 +10183,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>941</v>
       </c>
@@ -10162,7 +10206,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>943</v>
       </c>
@@ -10185,7 +10229,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>944</v>
       </c>
@@ -10208,7 +10252,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>946</v>
       </c>
@@ -10231,7 +10275,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>947</v>
       </c>
@@ -10254,7 +10298,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>949</v>
       </c>
@@ -10277,7 +10321,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>950</v>
       </c>
@@ -10300,7 +10344,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>952</v>
       </c>
@@ -10323,7 +10367,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>953</v>
       </c>
@@ -10346,7 +10390,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>955</v>
       </c>
@@ -10369,7 +10413,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>956</v>
       </c>
@@ -10392,7 +10436,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>958</v>
       </c>
@@ -10415,7 +10459,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>959</v>
       </c>
@@ -10438,7 +10482,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>961</v>
       </c>
@@ -10461,7 +10505,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>962</v>
       </c>
@@ -10484,7 +10528,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>964</v>
       </c>
@@ -10507,7 +10551,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>965</v>
       </c>
@@ -10530,7 +10574,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>967</v>
       </c>
@@ -10553,7 +10597,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>968</v>
       </c>
@@ -10576,7 +10620,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>970</v>
       </c>
@@ -10599,7 +10643,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>971</v>
       </c>
@@ -10622,7 +10666,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>973</v>
       </c>
@@ -10645,7 +10689,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>974</v>
       </c>
@@ -10668,7 +10712,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>976</v>
       </c>
@@ -10691,7 +10735,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>977</v>
       </c>
@@ -10714,7 +10758,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>979</v>
       </c>
@@ -10737,7 +10781,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>980</v>
       </c>
@@ -10760,7 +10804,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>982</v>
       </c>
@@ -10783,7 +10827,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>983</v>
       </c>
@@ -10806,7 +10850,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>985</v>
       </c>
@@ -10829,7 +10873,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>986</v>
       </c>
@@ -10852,7 +10896,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>988</v>
       </c>
@@ -10875,7 +10919,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>989</v>
       </c>
@@ -10898,7 +10942,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>991</v>
       </c>
@@ -10921,7 +10965,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>992</v>
       </c>
@@ -10944,7 +10988,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>994</v>
       </c>
@@ -10967,7 +11011,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>995</v>
       </c>
@@ -10990,7 +11034,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>997</v>
       </c>
@@ -11013,7 +11057,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>998</v>
       </c>
@@ -11036,7 +11080,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1000</v>
       </c>
@@ -11059,7 +11103,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1001</v>
       </c>
@@ -11082,7 +11126,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1003</v>
       </c>
@@ -11105,7 +11149,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1004</v>
       </c>
@@ -11128,7 +11172,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1006</v>
       </c>
@@ -11151,7 +11195,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1007</v>
       </c>
@@ -11174,7 +11218,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1009</v>
       </c>
@@ -11197,7 +11241,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1010</v>
       </c>
@@ -11220,7 +11264,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1012</v>
       </c>
@@ -11243,7 +11287,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1013</v>
       </c>
@@ -11266,7 +11310,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1015</v>
       </c>
@@ -11289,7 +11333,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1016</v>
       </c>
@@ -11312,7 +11356,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1018</v>
       </c>
@@ -11335,7 +11379,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1019</v>
       </c>
@@ -11358,7 +11402,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1021</v>
       </c>
@@ -11381,7 +11425,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1022</v>
       </c>
@@ -11404,7 +11448,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1024</v>
       </c>
@@ -11427,7 +11471,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1025</v>
       </c>
@@ -11450,7 +11494,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1027</v>
       </c>
@@ -11473,7 +11517,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1028</v>
       </c>
@@ -11496,7 +11540,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1030</v>
       </c>
@@ -11519,7 +11563,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1031</v>
       </c>
@@ -11542,7 +11586,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1033</v>
       </c>
@@ -11565,7 +11609,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1034</v>
       </c>
@@ -11588,7 +11632,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1036</v>
       </c>
@@ -11611,7 +11655,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1037</v>
       </c>
@@ -11634,7 +11678,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1039</v>
       </c>
@@ -11657,7 +11701,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1040</v>
       </c>
@@ -11680,7 +11724,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1042</v>
       </c>
@@ -11703,7 +11747,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1043</v>
       </c>
@@ -11726,7 +11770,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1045</v>
       </c>
@@ -11749,7 +11793,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1046</v>
       </c>
@@ -11772,7 +11816,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1048</v>
       </c>
@@ -11795,7 +11839,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1049</v>
       </c>
@@ -11818,7 +11862,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1051</v>
       </c>
@@ -11841,7 +11885,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1052</v>
       </c>
@@ -11864,7 +11908,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1054</v>
       </c>
@@ -11887,7 +11931,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1055</v>
       </c>
@@ -11910,7 +11954,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1057</v>
       </c>
@@ -11933,7 +11977,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1058</v>
       </c>
@@ -11956,7 +12000,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1060</v>
       </c>
@@ -11979,7 +12023,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1061</v>
       </c>
@@ -12002,7 +12046,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1063</v>
       </c>
@@ -12025,7 +12069,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1064</v>
       </c>
@@ -12048,7 +12092,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1066</v>
       </c>
@@ -12071,7 +12115,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1067</v>
       </c>
@@ -12094,7 +12138,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1069</v>
       </c>
@@ -12117,7 +12161,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1070</v>
       </c>
@@ -12140,7 +12184,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1072</v>
       </c>
@@ -12163,7 +12207,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1073</v>
       </c>
@@ -12186,7 +12230,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1075</v>
       </c>
@@ -12209,7 +12253,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1076</v>
       </c>
@@ -12232,7 +12276,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1078</v>
       </c>
@@ -12255,7 +12299,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1079</v>
       </c>
@@ -12278,7 +12322,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1081</v>
       </c>
@@ -12301,7 +12345,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1082</v>
       </c>
@@ -12324,7 +12368,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1084</v>
       </c>
@@ -12347,7 +12391,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1085</v>
       </c>
@@ -12370,7 +12414,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1087</v>
       </c>
@@ -12393,7 +12437,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1088</v>
       </c>
@@ -12416,7 +12460,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1090</v>
       </c>
@@ -12439,7 +12483,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1091</v>
       </c>
@@ -12462,7 +12506,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1093</v>
       </c>
@@ -12485,7 +12529,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1094</v>
       </c>
@@ -12508,7 +12552,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1096</v>
       </c>
@@ -12531,7 +12575,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1097</v>
       </c>
@@ -12554,7 +12598,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1099</v>
       </c>
@@ -12577,7 +12621,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1100</v>
       </c>
@@ -12600,7 +12644,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1102</v>
       </c>
@@ -12623,7 +12667,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1103</v>
       </c>
@@ -12646,7 +12690,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1105</v>
       </c>
@@ -12669,7 +12713,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1106</v>
       </c>
@@ -12692,7 +12736,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1108</v>
       </c>
@@ -12715,7 +12759,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1109</v>
       </c>
@@ -12738,7 +12782,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1111</v>
       </c>
@@ -12761,7 +12805,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1112</v>
       </c>
@@ -12784,7 +12828,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1114</v>
       </c>
@@ -12807,7 +12851,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1115</v>
       </c>
@@ -12830,7 +12874,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1117</v>
       </c>
@@ -12853,7 +12897,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1118</v>
       </c>
@@ -12876,7 +12920,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1120</v>
       </c>
@@ -12899,7 +12943,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1121</v>
       </c>
@@ -12922,7 +12966,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1123</v>
       </c>
@@ -12945,7 +12989,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1124</v>
       </c>
@@ -12968,7 +13012,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1126</v>
       </c>
@@ -12991,7 +13035,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1127</v>
       </c>
@@ -13014,7 +13058,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1129</v>
       </c>
@@ -13037,7 +13081,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1130</v>
       </c>
@@ -13060,7 +13104,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1132</v>
       </c>
@@ -13083,7 +13127,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1133</v>
       </c>
@@ -13106,7 +13150,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1135</v>
       </c>
@@ -13129,7 +13173,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1136</v>
       </c>
@@ -13152,7 +13196,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1138</v>
       </c>
@@ -13175,7 +13219,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1139</v>
       </c>
@@ -13198,7 +13242,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1141</v>
       </c>
@@ -13221,7 +13265,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1142</v>
       </c>
@@ -13244,7 +13288,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1144</v>
       </c>
@@ -13267,7 +13311,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1145</v>
       </c>
@@ -13290,7 +13334,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1147</v>
       </c>
@@ -13313,7 +13357,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1148</v>
       </c>
@@ -13336,7 +13380,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1150</v>
       </c>
@@ -13359,7 +13403,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1151</v>
       </c>
@@ -13382,7 +13426,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1153</v>
       </c>
@@ -13405,7 +13449,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1154</v>
       </c>
@@ -13428,7 +13472,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1156</v>
       </c>
@@ -13451,7 +13495,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1157</v>
       </c>
@@ -13474,7 +13518,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1159</v>
       </c>
@@ -13497,7 +13541,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1160</v>
       </c>
@@ -13520,7 +13564,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1162</v>
       </c>
@@ -13543,7 +13587,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1163</v>
       </c>
@@ -13566,7 +13610,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1165</v>
       </c>
@@ -13589,7 +13633,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1166</v>
       </c>
@@ -13612,7 +13656,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1168</v>
       </c>
@@ -13635,7 +13679,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1169</v>
       </c>
@@ -13658,7 +13702,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1171</v>
       </c>
@@ -13681,7 +13725,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1172</v>
       </c>
@@ -13704,7 +13748,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1174</v>
       </c>
@@ -13727,7 +13771,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1175</v>
       </c>
@@ -13750,7 +13794,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1177</v>
       </c>
@@ -13773,7 +13817,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1178</v>
       </c>
@@ -13796,7 +13840,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1180</v>
       </c>
@@ -13819,7 +13863,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1181</v>
       </c>
@@ -13842,7 +13886,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1183</v>
       </c>
@@ -13865,7 +13909,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1184</v>
       </c>
@@ -13888,7 +13932,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1186</v>
       </c>
@@ -13911,7 +13955,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1187</v>
       </c>
@@ -13934,7 +13978,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1189</v>
       </c>
@@ -13957,7 +14001,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1190</v>
       </c>
@@ -13980,7 +14024,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1192</v>
       </c>
@@ -14003,7 +14047,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1193</v>
       </c>
@@ -14026,7 +14070,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1195</v>
       </c>
@@ -14049,7 +14093,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1196</v>
       </c>
@@ -14072,7 +14116,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1198</v>
       </c>
@@ -14095,7 +14139,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1199</v>
       </c>
@@ -14118,7 +14162,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1201</v>
       </c>
@@ -14141,7 +14185,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1202</v>
       </c>
@@ -14164,7 +14208,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1204</v>
       </c>
@@ -14187,7 +14231,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1205</v>
       </c>
@@ -14210,7 +14254,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1207</v>
       </c>
@@ -14233,7 +14277,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1208</v>
       </c>
@@ -14256,7 +14300,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1210</v>
       </c>
@@ -14279,7 +14323,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1211</v>
       </c>
@@ -14302,7 +14346,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1213</v>
       </c>
@@ -14325,7 +14369,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1214</v>
       </c>
@@ -14348,7 +14392,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1216</v>
       </c>
@@ -14371,7 +14415,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1217</v>
       </c>
@@ -14394,7 +14438,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1219</v>
       </c>
@@ -14417,7 +14461,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1220</v>
       </c>
@@ -14440,7 +14484,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1222</v>
       </c>
@@ -14463,7 +14507,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1223</v>
       </c>
@@ -14486,7 +14530,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1225</v>
       </c>
@@ -14509,7 +14553,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1226</v>
       </c>
@@ -14532,7 +14576,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1228</v>
       </c>
@@ -14555,7 +14599,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1229</v>
       </c>
@@ -14578,7 +14622,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1231</v>
       </c>
@@ -14601,7 +14645,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1232</v>
       </c>
@@ -14624,7 +14668,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1234</v>
       </c>
@@ -14647,7 +14691,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1235</v>
       </c>
@@ -14670,7 +14714,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1237</v>
       </c>
@@ -14693,7 +14737,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1238</v>
       </c>
@@ -14716,7 +14760,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1240</v>
       </c>
@@ -14739,7 +14783,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1241</v>
       </c>
@@ -14762,7 +14806,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1243</v>
       </c>
@@ -14785,7 +14829,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1244</v>
       </c>
@@ -14808,7 +14852,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1246</v>
       </c>
@@ -14831,7 +14875,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1247</v>
       </c>
@@ -14854,7 +14898,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1249</v>
       </c>
@@ -14877,7 +14921,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1250</v>
       </c>
@@ -14900,7 +14944,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1252</v>
       </c>
@@ -14923,7 +14967,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1253</v>
       </c>
@@ -14946,7 +14990,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1255</v>
       </c>
@@ -14969,7 +15013,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1256</v>
       </c>
@@ -14992,7 +15036,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1258</v>
       </c>
@@ -15015,7 +15059,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1259</v>
       </c>
@@ -15038,7 +15082,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1261</v>
       </c>
@@ -15061,7 +15105,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1262</v>
       </c>
@@ -15084,7 +15128,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1264</v>
       </c>
@@ -15107,7 +15151,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1265</v>
       </c>
@@ -15130,7 +15174,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1267</v>
       </c>
@@ -15153,7 +15197,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1268</v>
       </c>
@@ -15176,7 +15220,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1270</v>
       </c>
@@ -15199,7 +15243,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1271</v>
       </c>
@@ -15222,7 +15266,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1273</v>
       </c>
@@ -15245,7 +15289,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1274</v>
       </c>
@@ -15268,7 +15312,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1276</v>
       </c>
@@ -15291,7 +15335,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1277</v>
       </c>
@@ -15314,7 +15358,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1279</v>
       </c>
@@ -15337,7 +15381,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1280</v>
       </c>
@@ -15360,7 +15404,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1282</v>
       </c>
@@ -15383,7 +15427,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1283</v>
       </c>
@@ -15406,7 +15450,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1285</v>
       </c>
@@ -15429,7 +15473,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1286</v>
       </c>
@@ -15452,7 +15496,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1288</v>
       </c>
@@ -15475,7 +15519,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1289</v>
       </c>
@@ -15498,7 +15542,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1291</v>
       </c>
@@ -15521,7 +15565,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1292</v>
       </c>
@@ -15544,7 +15588,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1294</v>
       </c>
@@ -15567,7 +15611,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1295</v>
       </c>
@@ -15590,7 +15634,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1297</v>
       </c>
@@ -15613,7 +15657,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1298</v>
       </c>
@@ -15636,7 +15680,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1300</v>
       </c>
@@ -15659,7 +15703,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1301</v>
       </c>
@@ -15682,7 +15726,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1303</v>
       </c>
@@ -15705,7 +15749,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1304</v>
       </c>
@@ -15728,7 +15772,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1306</v>
       </c>
@@ -15751,7 +15795,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1307</v>
       </c>
@@ -15774,7 +15818,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1309</v>
       </c>
@@ -15797,7 +15841,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1310</v>
       </c>
@@ -15820,7 +15864,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1312</v>
       </c>
@@ -15843,7 +15887,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1313</v>
       </c>
@@ -15866,7 +15910,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1315</v>
       </c>
@@ -15889,7 +15933,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1316</v>
       </c>
@@ -15912,7 +15956,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1318</v>
       </c>
@@ -15935,7 +15979,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1319</v>
       </c>
@@ -15958,7 +16002,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1321</v>
       </c>
@@ -15981,7 +16025,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1322</v>
       </c>
@@ -16004,7 +16048,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1324</v>
       </c>
@@ -16027,7 +16071,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1325</v>
       </c>
@@ -16050,7 +16094,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1327</v>
       </c>
@@ -16073,7 +16117,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1328</v>
       </c>
@@ -16096,7 +16140,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1330</v>
       </c>
@@ -16119,7 +16163,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1331</v>
       </c>
@@ -16142,7 +16186,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1333</v>
       </c>
@@ -16165,7 +16209,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1334</v>
       </c>
@@ -16188,7 +16232,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1336</v>
       </c>
@@ -16211,7 +16255,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1337</v>
       </c>
@@ -16234,7 +16278,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1339</v>
       </c>
@@ -16257,7 +16301,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1340</v>
       </c>
@@ -16280,7 +16324,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1342</v>
       </c>
@@ -16303,7 +16347,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1343</v>
       </c>
@@ -16326,7 +16370,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1345</v>
       </c>
@@ -16349,7 +16393,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1346</v>
       </c>
@@ -16372,7 +16416,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1348</v>
       </c>
@@ -16395,7 +16439,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1349</v>
       </c>
@@ -16418,7 +16462,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1351</v>
       </c>
@@ -16441,7 +16485,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1352</v>
       </c>
@@ -16464,7 +16508,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1354</v>
       </c>
@@ -16487,7 +16531,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1355</v>
       </c>
@@ -16510,7 +16554,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1357</v>
       </c>
@@ -16533,7 +16577,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1358</v>
       </c>
@@ -16556,7 +16600,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1360</v>
       </c>
@@ -16579,7 +16623,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1361</v>
       </c>
@@ -16602,7 +16646,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1363</v>
       </c>
@@ -16625,7 +16669,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1364</v>
       </c>
@@ -16648,7 +16692,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1366</v>
       </c>
@@ -16671,7 +16715,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1367</v>
       </c>
@@ -16694,7 +16738,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1369</v>
       </c>
@@ -16717,7 +16761,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1370</v>
       </c>
@@ -16740,7 +16784,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1372</v>
       </c>
@@ -16769,34 +16813,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="374.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="374.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>893</v>
       </c>
@@ -16852,7 +16898,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -16908,7 +16954,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -16958,7 +17004,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>924</v>
       </c>
@@ -17014,12 +17060,12 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>929</v>
       </c>
@@ -17028,6 +17074,9 @@
       </c>
       <c r="G6" t="s">
         <v>1419</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1533</v>
       </c>
     </row>
   </sheetData>
@@ -17036,76 +17085,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -17287,7 +17333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -17469,7 +17515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -17630,7 +17676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -17812,12 +17858,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -17834,7 +17880,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -17851,7 +17897,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -17868,7 +17914,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -17885,7 +17931,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -17902,7 +17948,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -17919,7 +17965,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -17936,7 +17982,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -17953,7 +17999,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>236</v>
       </c>
@@ -17970,7 +18016,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>239</v>
       </c>
@@ -17987,7 +18033,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -18004,7 +18050,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -18021,7 +18067,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -18038,7 +18084,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -18055,7 +18101,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -18072,7 +18118,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -18089,7 +18135,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>260</v>
       </c>
@@ -18106,7 +18152,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>263</v>
       </c>
@@ -18123,7 +18169,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -18140,7 +18186,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>269</v>
       </c>
@@ -18157,7 +18203,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -18174,7 +18220,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -18191,7 +18237,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -18208,7 +18254,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>281</v>
       </c>
@@ -18225,7 +18271,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>284</v>
       </c>
@@ -18242,7 +18288,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>287</v>
       </c>
@@ -18259,7 +18305,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -18276,7 +18322,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -18293,7 +18339,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>296</v>
       </c>
@@ -18310,7 +18356,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>299</v>
       </c>
@@ -18327,7 +18373,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>302</v>
       </c>
@@ -18344,7 +18390,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>305</v>
       </c>
@@ -18361,7 +18407,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>308</v>
       </c>
@@ -18378,7 +18424,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -18395,7 +18441,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>314</v>
       </c>
@@ -18412,7 +18458,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>317</v>
       </c>
@@ -18429,7 +18475,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -18446,7 +18492,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -18463,7 +18509,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>326</v>
       </c>
@@ -18480,7 +18526,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -18497,7 +18543,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>332</v>
       </c>
@@ -18514,7 +18560,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -18531,7 +18577,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -18548,7 +18594,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>341</v>
       </c>
@@ -18565,7 +18611,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -18582,7 +18628,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>347</v>
       </c>
@@ -18599,7 +18645,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -18616,7 +18662,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -18633,7 +18679,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>356</v>
       </c>
@@ -18650,7 +18696,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>359</v>
       </c>
@@ -18667,7 +18713,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>362</v>
       </c>
@@ -18684,7 +18730,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>365</v>
       </c>
@@ -18701,7 +18747,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>368</v>
       </c>
@@ -18718,7 +18764,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>371</v>
       </c>
@@ -18735,7 +18781,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>374</v>
       </c>
@@ -18752,7 +18798,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -18769,7 +18815,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>380</v>
       </c>
@@ -18786,7 +18832,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>383</v>
       </c>
@@ -18803,7 +18849,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>386</v>
       </c>
@@ -18820,7 +18866,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>389</v>
       </c>
@@ -18837,7 +18883,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>392</v>
       </c>
@@ -18854,7 +18900,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>395</v>
       </c>
@@ -18871,7 +18917,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>398</v>
       </c>
@@ -18888,7 +18934,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>401</v>
       </c>
@@ -18905,7 +18951,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>404</v>
       </c>
@@ -18922,7 +18968,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>407</v>
       </c>
@@ -18939,7 +18985,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>410</v>
       </c>
@@ -18956,7 +19002,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>413</v>
       </c>
@@ -18973,7 +19019,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>416</v>
       </c>
@@ -18990,7 +19036,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>419</v>
       </c>
@@ -19007,7 +19053,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>422</v>
       </c>
@@ -19024,7 +19070,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>425</v>
       </c>
@@ -19041,7 +19087,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>428</v>
       </c>
@@ -19058,7 +19104,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>431</v>
       </c>
